--- a/resources/test_data/excel/dev_test_data.xlsx
+++ b/resources/test_data/excel/dev_test_data.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Login Data" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Key</t>
   </si>
@@ -57,13 +62,22 @@
   </si>
   <si>
     <t>welcome1!</t>
+  </si>
+  <si>
+    <t>kathy.grace@mailinator.com</t>
+  </si>
+  <si>
+    <t>District Admin Username</t>
+  </si>
+  <si>
+    <t>District Admin Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -99,6 +113,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -143,25 +163,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -195,8 +216,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -224,7 +252,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="1" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1417,16 +1445,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1450,28 +1478,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1483,13 +1524,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
@@ -1534,5 +1575,10 @@
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>